--- a/outputs-HGR-r202/g__Porphyromonas.xlsx
+++ b/outputs-HGR-r202/g__Porphyromonas.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,50 +442,45 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>1-s__</t>
+          <t>1-s__Porphyromonas sp900538385</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2-s__Porphyromonas sp900538385</t>
+          <t>2-s__Porphyromonas sp900539155</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>3-s__Porphyromonas sp900539155</t>
+          <t>3-s__Porphyromonas sp900539765</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>4-s__Porphyromonas sp900539765</t>
+          <t>4-s__Porphyromonas sp900546675</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>5-s__Porphyromonas sp900546675</t>
+          <t>5-s__Porphyromonas sp900548415</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>6-s__Porphyromonas sp900548415</t>
+          <t>6-s__Porphyromonas uenonis</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>7-s__Porphyromonas uenonis</t>
+          <t>max</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>prediction</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>prediction</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>rejection-f</t>
         </is>
@@ -498,37 +493,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.00757910888707244</v>
+        <v>0.4390664410843297</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6954656095999393</v>
+        <v>0.07783092356101451</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07444752291557674</v>
+        <v>0.1536691660683086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05159452310646929</v>
+        <v>0.2237631073249018</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1110604438032056</v>
+        <v>0.02424621487754026</v>
       </c>
       <c r="G2" t="n">
-        <v>0.000950347833451556</v>
+        <v>0.08142414708390522</v>
       </c>
       <c r="H2" t="n">
-        <v>0.05890244385428504</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.6954656095999393</v>
+        <v>0.4390664410843297</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>s__Porphyromonas sp900538385</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
           <t>s__Porphyromonas sp900538385</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>s__Porphyromonas sp900538385(reject)</t>
         </is>
       </c>
     </row>
@@ -539,35 +531,32 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.005388898435217154</v>
+        <v>0.4623174241676595</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8806775404863743</v>
+        <v>0.1322913971106021</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02297173290377606</v>
+        <v>0.1532168976728953</v>
       </c>
       <c r="E3" t="n">
-        <v>0.05319428422841277</v>
+        <v>0.1568971397235569</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003248497232206784</v>
+        <v>0.03798382788485368</v>
       </c>
       <c r="G3" t="n">
-        <v>0.002181317110454047</v>
+        <v>0.05729331344043253</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03233772960355913</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.8806775404863743</v>
+        <v>0.4623174241676595</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>s__Porphyromonas sp900538385</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>s__Porphyromonas sp900538385</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>s__Porphyromonas sp900538385</t>
         </is>
@@ -580,37 +569,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.007772049965965337</v>
+        <v>0.4149344537336774</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4671714807617709</v>
+        <v>0.03289913985119336</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0143370246282041</v>
+        <v>0.2263296898697735</v>
       </c>
       <c r="E4" t="n">
-        <v>0.326080526741219</v>
+        <v>0.2115058719256736</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08632284587226383</v>
+        <v>0.03431419324961719</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0003879964948819827</v>
+        <v>0.080016651370065</v>
       </c>
       <c r="H4" t="n">
-        <v>0.09792807553569491</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.4671714807617709</v>
+        <v>0.4149344537336774</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>s__Porphyromonas sp900538385</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
           <t>s__Porphyromonas sp900538385</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>s__Porphyromonas sp900538385(reject)</t>
         </is>
       </c>
     </row>
@@ -621,37 +607,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.004174016530086522</v>
+        <v>0.454306474378016</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6343755522717214</v>
+        <v>0.1005565304296403</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1751960439163865</v>
+        <v>0.1563075544928907</v>
       </c>
       <c r="E5" t="n">
-        <v>0.08060996466861088</v>
+        <v>0.1997746532042696</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03090203984429759</v>
+        <v>0.02417616971481952</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0003388457161443044</v>
+        <v>0.0648786177803638</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07440353705275275</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.6343755522717214</v>
+        <v>0.454306474378016</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>s__Porphyromonas sp900538385</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
           <t>s__Porphyromonas sp900538385</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>s__Porphyromonas sp900538385(reject)</t>
         </is>
       </c>
     </row>
@@ -662,37 +645,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.009854838849013009</v>
+        <v>0.4249029049717056</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5137644791118382</v>
+        <v>0.05662261251794098</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09764800427513463</v>
+        <v>0.1985213728448807</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1752860835344679</v>
+        <v>0.1992475059527396</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1452056755584855</v>
+        <v>0.02643223232902073</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0001862006065188395</v>
+        <v>0.09427337138371247</v>
       </c>
       <c r="H6" t="n">
-        <v>0.05805471806454204</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.5137644791118382</v>
+        <v>0.4249029049717056</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>s__Porphyromonas sp900538385</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
           <t>s__Porphyromonas sp900538385</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>s__Porphyromonas sp900538385(reject)</t>
         </is>
       </c>
     </row>
@@ -703,37 +683,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.003690712854191417</v>
+        <v>0.4915760849975687</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5913044972248056</v>
+        <v>0.09240208913097921</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1153624305320682</v>
+        <v>0.1570608031053659</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1970072334626633</v>
+        <v>0.1662047407512932</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03847466771829327</v>
+        <v>0.02366561878000675</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0002401402420118108</v>
+        <v>0.06909066323478616</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05392031796596645</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.5913044972248056</v>
+        <v>0.4915760849975687</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>s__Porphyromonas sp900538385</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
           <t>s__Porphyromonas sp900538385</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>s__Porphyromonas sp900538385(reject)</t>
         </is>
       </c>
     </row>
@@ -744,37 +721,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.006872578988444946</v>
+        <v>0.3456787171470233</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7155938593251164</v>
+        <v>0.1789553935788126</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1417268204723173</v>
+        <v>0.180248971932095</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0759917332884377</v>
+        <v>0.1835513994448581</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02076415692283229</v>
+        <v>0.04321044674413901</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0008417416609711212</v>
+        <v>0.06835507115307221</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03820910934188037</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.7155938593251164</v>
+        <v>0.3456787171470233</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>s__Porphyromonas sp900538385</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
           <t>s__Porphyromonas sp900538385</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>s__Porphyromonas sp900538385(reject)</t>
         </is>
       </c>
     </row>
@@ -785,37 +759,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.005432495526971694</v>
+        <v>0.354119631966291</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6897736938042212</v>
+        <v>0.1199015809624393</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1385763680377879</v>
+        <v>0.1905917509583018</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1075490389788591</v>
+        <v>0.1992082001498838</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0159100735627158</v>
+        <v>0.0495635618896473</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0008352922880781224</v>
+        <v>0.08661527407343682</v>
       </c>
       <c r="H9" t="n">
-        <v>0.04192303780136616</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.6897736938042212</v>
+        <v>0.354119631966291</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>s__Porphyromonas sp900538385</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
           <t>s__Porphyromonas sp900538385</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>s__Porphyromonas sp900538385(reject)</t>
         </is>
       </c>
     </row>

--- a/outputs-HGR-r202/g__Porphyromonas.xlsx
+++ b/outputs-HGR-r202/g__Porphyromonas.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +480,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -513,6 +518,11 @@
           <t>s__Porphyromonas sp900538385</t>
         </is>
       </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>s__Porphyromonas sp900538385</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -546,6 +556,11 @@
           <t>s__Porphyromonas sp900538385</t>
         </is>
       </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>s__Porphyromonas sp900538385</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -579,6 +594,11 @@
           <t>s__Porphyromonas sp900538385</t>
         </is>
       </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>s__Porphyromonas sp900538385</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -612,6 +632,11 @@
           <t>s__Porphyromonas sp900538385</t>
         </is>
       </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>s__Porphyromonas sp900538385</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -645,6 +670,11 @@
           <t>s__Porphyromonas sp900538385</t>
         </is>
       </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>s__Porphyromonas sp900538385</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -678,6 +708,11 @@
           <t>s__Porphyromonas sp900538385</t>
         </is>
       </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>s__Porphyromonas sp900538385</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -711,6 +746,11 @@
           <t>s__Porphyromonas sp900538385</t>
         </is>
       </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>s__Porphyromonas sp900538385</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -740,6 +780,11 @@
         <v>0.354119631966291</v>
       </c>
       <c r="I9" t="inlineStr">
+        <is>
+          <t>s__Porphyromonas sp900538385</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>s__Porphyromonas sp900538385</t>
         </is>
